--- a/syllabusDS.xlsx
+++ b/syllabusDS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Data science</t>
   </si>
@@ -139,6 +139,45 @@
   </si>
   <si>
     <t>R Arrays</t>
+  </si>
+  <si>
+    <t>R Factors</t>
+  </si>
+  <si>
+    <t>R Data Frame</t>
+  </si>
+  <si>
+    <t>creating, accessing, factors, levels,gl,</t>
+  </si>
+  <si>
+    <t>Creating,accessing, data.frame, summary,rbind</t>
+  </si>
+  <si>
+    <t>R  Reshape</t>
+  </si>
+  <si>
+    <t>cbind, rbind,merge, melt,cast,reshape</t>
+  </si>
+  <si>
+    <t>R probability</t>
+  </si>
+  <si>
+    <t>R probability concepts</t>
+  </si>
+  <si>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t>R – Basic Statistics</t>
+  </si>
+  <si>
+    <t>R mtcars</t>
+  </si>
+  <si>
+    <t>Dataset - sample data</t>
+  </si>
+  <si>
+    <t>Mean,median,mode, mtcars,airquality</t>
   </si>
 </sst>
 </file>
@@ -480,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D22"/>
+  <dimension ref="A3:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -696,7 +735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -704,7 +743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -712,7 +751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>35</v>
       </c>
@@ -720,7 +759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>40</v>
       </c>
@@ -728,12 +767,68 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
